--- a/StrategyPaperAnalysis/Coaltion Data State Level 2010-2016 (Coalitions and Parties).xlsx
+++ b/StrategyPaperAnalysis/Coaltion Data State Level 2010-2016 (Coalitions and Parties).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atrelles/Documents/mex-open-map/StrategyPaperAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Altman\Documents\mex-open-map\StrategyPaperAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4F7CCF-03E2-7944-B4E9-03D44D388713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B4ED5-D018-4AA9-B361-A9232C8B4063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,11 @@
     <sheet name="Coalitions and Parties" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="72">
   <si>
     <t>edon</t>
   </si>
@@ -127,9 +119,6 @@
   </si>
   <si>
     <t>Durango</t>
-  </si>
-  <si>
-    <t>PAN-PRD-PC</t>
   </si>
   <si>
     <t>PAN-PRD</t>
@@ -510,13 +499,13 @@
   </sheetPr>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -536,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -556,7 +545,7 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -576,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -596,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -616,7 +605,7 @@
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -636,7 +625,7 @@
         <v>61.111111111111114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -676,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -687,7 +676,7 @@
         <v>2017</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2">
         <v>100</v>
@@ -696,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -716,7 +705,7 @@
         <v>41.17647058823529</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -736,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -756,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -776,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -796,7 +785,7 @@
         <v>58.82352941176471</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -816,7 +805,7 @@
         <v>41.17647058823529</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -836,7 +825,7 @@
         <v>70.588235294117652</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -856,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -876,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -887,7 +876,7 @@
         <v>2017</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2">
         <v>100</v>
@@ -896,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -916,7 +905,7 @@
         <v>29.411764705882355</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -936,7 +925,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -956,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -976,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -996,7 +985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1016,7 +1005,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -1036,7 +1025,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1056,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1076,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1087,7 +1076,7 @@
         <v>2017</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2">
         <v>100</v>
@@ -1096,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -1116,7 +1105,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -1136,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -1156,7 +1145,7 @@
         <v>4.7619047619047619</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1176,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -1196,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -1216,7 +1205,7 @@
         <v>95.238095238095227</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -1236,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -1256,7 +1245,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -1276,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -1296,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -1307,7 +1296,7 @@
         <v>2017</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2">
         <v>100</v>
@@ -1316,7 +1305,7 @@
         <v>4.7619047619047619</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -1336,7 +1325,7 @@
         <v>61.904761904761905</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1356,7 +1345,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -1376,7 +1365,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>5</v>
       </c>
@@ -1396,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>5</v>
       </c>
@@ -1416,7 +1405,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>5</v>
       </c>
@@ -1436,7 +1425,7 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>5</v>
       </c>
@@ -1456,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>5</v>
       </c>
@@ -1476,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>5</v>
       </c>
@@ -1496,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>5</v>
       </c>
@@ -1507,7 +1496,7 @@
         <v>2017</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E50" s="2">
         <v>100</v>
@@ -1516,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5</v>
       </c>
@@ -1536,7 +1525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>5</v>
       </c>
@@ -1556,7 +1545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -1576,7 +1565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -1596,7 +1585,7 @@
         <v>18.181818181818183</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6</v>
       </c>
@@ -1616,7 +1605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>6</v>
       </c>
@@ -1636,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -1656,7 +1645,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>6</v>
       </c>
@@ -1676,7 +1665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>6</v>
       </c>
@@ -1696,7 +1685,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>6</v>
       </c>
@@ -1716,7 +1705,7 @@
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>6</v>
       </c>
@@ -1736,7 +1725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>6</v>
       </c>
@@ -1756,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>6</v>
       </c>
@@ -1767,7 +1756,7 @@
         <v>2017</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E63" s="2">
         <v>100</v>
@@ -1776,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>6</v>
       </c>
@@ -1796,7 +1785,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>7</v>
       </c>
@@ -1816,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>7</v>
       </c>
@@ -1836,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>7</v>
       </c>
@@ -1856,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>7</v>
       </c>
@@ -1876,7 +1865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>7</v>
       </c>
@@ -1896,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>7</v>
       </c>
@@ -1916,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>7</v>
       </c>
@@ -1936,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>7</v>
       </c>
@@ -1956,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>7</v>
       </c>
@@ -1967,7 +1956,7 @@
         <v>2017</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" s="2">
         <v>100</v>
@@ -1976,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>7</v>
       </c>
@@ -1996,7 +1985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>8</v>
       </c>
@@ -2016,7 +2005,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>8</v>
       </c>
@@ -2036,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>8</v>
       </c>
@@ -2056,7 +2045,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>8</v>
       </c>
@@ -2076,7 +2065,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>8</v>
       </c>
@@ -2096,7 +2085,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>8</v>
       </c>
@@ -2116,7 +2105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -2136,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>8</v>
       </c>
@@ -2147,7 +2136,7 @@
         <v>2017</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E82" s="2">
         <v>100</v>
@@ -2156,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -2176,7 +2165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -2196,7 +2185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>9</v>
       </c>
@@ -2216,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>9</v>
       </c>
@@ -2236,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>9</v>
       </c>
@@ -2256,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>9</v>
       </c>
@@ -2276,7 +2265,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>9</v>
       </c>
@@ -2296,7 +2285,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>9</v>
       </c>
@@ -2316,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>9</v>
       </c>
@@ -2336,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>9</v>
       </c>
@@ -2347,7 +2336,7 @@
         <v>2017</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E92" s="2">
         <v>100</v>
@@ -2356,7 +2345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>9</v>
       </c>
@@ -2376,7 +2365,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>9</v>
       </c>
@@ -2396,7 +2385,7 @@
         <v>37.837837837837839</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>10</v>
       </c>
@@ -2416,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>10</v>
       </c>
@@ -2436,7 +2425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>10</v>
       </c>
@@ -2456,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>10</v>
       </c>
@@ -2467,7 +2456,7 @@
         <v>2013</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E98" s="2">
         <v>94.117647058823522</v>
@@ -2476,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>10</v>
       </c>
@@ -2496,7 +2485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>10</v>
       </c>
@@ -2516,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>10</v>
       </c>
@@ -2536,7 +2525,7 @@
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>10</v>
       </c>
@@ -2556,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>10</v>
       </c>
@@ -2567,7 +2556,7 @@
         <v>2017</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E103" s="2">
         <v>100</v>
@@ -2576,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>10</v>
       </c>
@@ -2587,7 +2576,7 @@
         <v>2017</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E104" s="2">
         <v>100</v>
@@ -2596,7 +2585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>10</v>
       </c>
@@ -2616,12 +2605,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>11</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C106" s="1">
         <v>2013</v>
@@ -2636,12 +2625,12 @@
         <v>81.818181818181827</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>11</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" s="1">
         <v>2013</v>
@@ -2656,12 +2645,12 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>11</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C108" s="1">
         <v>2013</v>
@@ -2676,12 +2665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>11</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C109" s="1">
         <v>2013</v>
@@ -2696,19 +2685,19 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>11</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E110" s="2">
         <v>100</v>
       </c>
@@ -2716,12 +2705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>11</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C111" s="1">
         <v>2017</v>
@@ -2736,12 +2725,12 @@
         <v>86.36363636363636</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>11</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C112" s="1">
         <v>2017</v>
@@ -2756,12 +2745,12 @@
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>11</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C113" s="1">
         <v>2017</v>
@@ -2776,18 +2765,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>11</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C114" s="1">
         <v>2017</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E114" s="2">
         <v>100</v>
@@ -2796,12 +2785,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>11</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C115" s="1">
         <v>2017</v>
@@ -2816,12 +2805,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>12</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C116" s="1">
         <v>2013</v>
@@ -2836,12 +2825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>12</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C117" s="1">
         <v>2013</v>
@@ -2856,12 +2845,12 @@
         <v>23.52941176470588</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>12</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C118" s="1">
         <v>2013</v>
@@ -2876,12 +2865,12 @@
         <v>72.222222222222214</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>12</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C119" s="1">
         <v>2013</v>
@@ -2896,18 +2885,18 @@
         <v>18.181818181818183</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>12</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E120" s="2">
         <v>35.714285714285715</v>
@@ -2916,12 +2905,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>12</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C121" s="1">
         <v>2017</v>
@@ -2936,12 +2925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>12</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C122" s="1">
         <v>2017</v>
@@ -2956,12 +2945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>12</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C123" s="1">
         <v>2017</v>
@@ -2976,18 +2965,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>12</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C124" s="1">
         <v>2017</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E124" s="2">
         <v>100</v>
@@ -2996,12 +2985,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>12</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C125" s="1">
         <v>2017</v>
@@ -3016,18 +3005,18 @@
         <v>60.714285714285708</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>12</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C126" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E126" s="2">
         <v>46.428571428571431</v>
@@ -3036,12 +3025,12 @@
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>13</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C127" s="1">
         <v>2013</v>
@@ -3056,12 +3045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>13</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C128" s="1">
         <v>2013</v>
@@ -3076,12 +3065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>13</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C129" s="1">
         <v>2013</v>
@@ -3096,18 +3085,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C130" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E130" s="2">
         <v>66.666666666666657</v>
@@ -3116,12 +3105,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C131" s="1">
         <v>2013</v>
@@ -3136,12 +3125,12 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C132" s="1">
         <v>2017</v>
@@ -3156,12 +3145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>13</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C133" s="1">
         <v>2017</v>
@@ -3176,12 +3165,12 @@
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>13</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C134" s="1">
         <v>2017</v>
@@ -3196,18 +3185,18 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>13</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C135" s="1">
         <v>2017</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E135" s="2">
         <v>100</v>
@@ -3216,12 +3205,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>13</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C136" s="1">
         <v>2017</v>
@@ -3236,12 +3225,12 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>14</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C137" s="1">
         <v>2013</v>
@@ -3256,12 +3245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>14</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C138" s="1">
         <v>2013</v>
@@ -3276,12 +3265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>14</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C139" s="1">
         <v>2013</v>
@@ -3296,12 +3285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>14</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C140" s="1">
         <v>2013</v>
@@ -3316,12 +3305,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>14</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C141" s="1">
         <v>2013</v>
@@ -3336,12 +3325,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>14</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C142" s="1">
         <v>2017</v>
@@ -3356,12 +3345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>14</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C143" s="1">
         <v>2017</v>
@@ -3376,12 +3365,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>14</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C144" s="1">
         <v>2017</v>
@@ -3396,12 +3385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>14</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C145" s="1">
         <v>2017</v>
@@ -3416,19 +3405,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>14</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C146" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E146" s="2">
         <v>100</v>
       </c>
@@ -3436,12 +3425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>14</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C147" s="1">
         <v>2017</v>
@@ -3456,12 +3445,12 @@
         <v>47.368421052631575</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>15</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C148" s="1">
         <v>2013</v>
@@ -3476,12 +3465,12 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>15</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C149" s="1">
         <v>2013</v>
@@ -3496,12 +3485,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>15</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C150" s="1">
         <v>2013</v>
@@ -3516,18 +3505,18 @@
         <v>3.5714285714285712</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>15</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C151" s="1">
         <v>2013</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E151" s="2">
         <v>37.777777777777779</v>
@@ -3536,12 +3525,12 @@
         <v>11.76470588235294</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>15</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C152" s="1">
         <v>2013</v>
@@ -3556,12 +3545,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>15</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C153" s="1">
         <v>2017</v>
@@ -3576,12 +3565,12 @@
         <v>8.8888888888888893</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>15</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C154" s="1">
         <v>2017</v>
@@ -3596,12 +3585,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>15</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C155" s="1">
         <v>2017</v>
@@ -3616,18 +3605,18 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>15</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C156" s="1">
         <v>2017</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E156" s="2">
         <v>100</v>
@@ -3636,12 +3625,12 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>15</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C157" s="1">
         <v>2017</v>
@@ -3656,12 +3645,12 @@
         <v>73.80952380952381</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>16</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C158" s="1">
         <v>2013</v>
@@ -3676,12 +3665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>16</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C159" s="1">
         <v>2013</v>
@@ -3696,38 +3685,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>16</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>16</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C160" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E160" s="1">
-        <v>0</v>
-      </c>
-      <c r="F160" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A161" s="1">
-        <v>16</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C161" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E161" s="2">
         <v>100</v>
@@ -3736,12 +3725,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>16</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C162" s="1">
         <v>2013</v>
@@ -3756,18 +3745,18 @@
         <v>45.833333333333329</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>16</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C163" s="1">
         <v>2013</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E163" s="2">
         <v>100</v>
@@ -3776,12 +3765,12 @@
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>16</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C164" s="1">
         <v>2017</v>
@@ -3796,12 +3785,12 @@
         <v>8.695652173913043</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>16</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C165" s="1">
         <v>2017</v>
@@ -3816,12 +3805,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>16</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C166" s="1">
         <v>2017</v>
@@ -3836,18 +3825,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>16</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C167" s="1">
         <v>2017</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E167" s="2">
         <v>100</v>
@@ -3856,18 +3845,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>16</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C168" s="1">
         <v>2017</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E168" s="2">
         <v>4.1666666666666661</v>
@@ -3876,12 +3865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>16</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C169" s="1">
         <v>2017</v>
@@ -3896,18 +3885,18 @@
         <v>45.454545454545453</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>16</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C170" s="1">
         <v>2017</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E170" s="2">
         <v>75</v>
@@ -3916,12 +3905,12 @@
         <v>41.666666666666671</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>17</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C171" s="1">
         <v>2013</v>
@@ -3936,12 +3925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>17</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C172" s="1">
         <v>2013</v>
@@ -3956,12 +3945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>17</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C173" s="1">
         <v>2013</v>
@@ -3976,12 +3965,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>17</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C174" s="1">
         <v>2013</v>
@@ -3996,12 +3985,12 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>17</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C175" s="1">
         <v>2013</v>
@@ -4016,12 +4005,12 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>17</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C176" s="1">
         <v>2017</v>
@@ -4036,12 +4025,12 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>17</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C177" s="1">
         <v>2017</v>
@@ -4056,12 +4045,12 @@
         <v>23.076923076923077</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>17</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C178" s="1">
         <v>2017</v>
@@ -4076,18 +4065,18 @@
         <v>44.444444444444443</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>17</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C179" s="1">
         <v>2017</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E179" s="2">
         <v>100</v>
@@ -4096,12 +4085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>17</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C180" s="1">
         <v>2017</v>
@@ -4116,12 +4105,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>18</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C181" s="1">
         <v>2013</v>
@@ -4136,12 +4125,12 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>18</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C182" s="1">
         <v>2013</v>
@@ -4156,12 +4145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>18</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C183" s="1">
         <v>2013</v>
@@ -4176,12 +4165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>18</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C184" s="1">
         <v>2013</v>
@@ -4196,18 +4185,18 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>18</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C185" s="1">
         <v>2013</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E185" s="2">
         <v>100</v>
@@ -4216,12 +4205,12 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>18</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C186" s="1">
         <v>2017</v>
@@ -4236,12 +4225,12 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>18</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C187" s="1">
         <v>2017</v>
@@ -4256,12 +4245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>18</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C188" s="1">
         <v>2017</v>
@@ -4276,18 +4265,18 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>18</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C189" s="1">
         <v>2017</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E189" s="2">
         <v>100</v>
@@ -4296,12 +4285,12 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>18</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C190" s="1">
         <v>2017</v>
@@ -4316,12 +4305,12 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>19</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C191" s="1">
         <v>2013</v>
@@ -4336,12 +4325,12 @@
         <v>57.692307692307686</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>19</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C192" s="1">
         <v>2013</v>
@@ -4356,12 +4345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>19</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C193" s="1">
         <v>2013</v>
@@ -4376,12 +4365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>19</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C194" s="1">
         <v>2013</v>
@@ -4396,12 +4385,12 @@
         <v>42.307692307692307</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>19</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C195" s="1">
         <v>2017</v>
@@ -4416,12 +4405,12 @@
         <v>61.53846153846154</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>19</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C196" s="1">
         <v>2017</v>
@@ -4436,12 +4425,12 @@
         <v>38.461538461538467</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>19</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C197" s="1">
         <v>2017</v>
@@ -4456,18 +4445,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>19</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C198" s="1">
         <v>2017</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E198" s="1">
         <v>0</v>
@@ -4476,18 +4465,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>19</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C199" s="1">
         <v>2017</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E199" s="2">
         <v>100</v>
@@ -4496,12 +4485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>20</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C200" s="1">
         <v>2013</v>
@@ -4516,12 +4505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>20</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C201" s="1">
         <v>2013</v>
@@ -4536,12 +4525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>20</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C202" s="1">
         <v>2013</v>
@@ -4556,18 +4545,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>20</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C203" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C203" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E203" s="2">
         <v>100</v>
@@ -4576,12 +4565,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>20</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C204" s="1">
         <v>2013</v>
@@ -4596,12 +4585,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>20</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C205" s="1">
         <v>2017</v>
@@ -4616,12 +4605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>20</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C206" s="1">
         <v>2017</v>
@@ -4636,12 +4625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>20</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C207" s="1">
         <v>2017</v>
@@ -4656,18 +4645,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>20</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C208" s="1">
         <v>2017</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E208" s="2">
         <v>100</v>
@@ -4676,18 +4665,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>20</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C209" s="1">
         <v>2017</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E209" s="2">
         <v>100</v>
@@ -4696,12 +4685,12 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>20</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C210" s="1">
         <v>2017</v>
@@ -4716,18 +4705,18 @@
         <v>54.166666666666664</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>20</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C211" s="1">
         <v>2017</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E211" s="2">
         <v>4</v>
@@ -4736,12 +4725,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>21</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C212" s="1">
         <v>2013</v>
@@ -4756,12 +4745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>21</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C213" s="1">
         <v>2013</v>
@@ -4776,12 +4765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>21</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C214" s="1">
         <v>2013</v>
@@ -4796,18 +4785,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>21</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C215" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C215" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E215" s="2">
         <v>100</v>
@@ -4816,12 +4805,12 @@
         <v>84.615384615384613</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>21</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C216" s="1">
         <v>2013</v>
@@ -4836,12 +4825,12 @@
         <v>15.384615384615385</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>21</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C217" s="1">
         <v>2017</v>
@@ -4856,12 +4845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>21</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C218" s="1">
         <v>2017</v>
@@ -4876,12 +4865,12 @@
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>21</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C219" s="1">
         <v>2017</v>
@@ -4896,12 +4885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>21</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C220" s="1">
         <v>2017</v>
@@ -4916,12 +4905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>21</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C221" s="1">
         <v>2017</v>
@@ -4936,18 +4925,18 @@
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>21</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C222" s="1">
         <v>2017</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E222" s="1">
         <v>0</v>
@@ -4956,18 +4945,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>21</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C223" s="1">
         <v>2017</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E223" s="2">
         <v>100</v>
@@ -4976,18 +4965,18 @@
         <v>26.923076923076923</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>21</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C224" s="1">
         <v>2017</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E224" s="2">
         <v>100</v>
@@ -4996,12 +4985,12 @@
         <v>61.53846153846154</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>22</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C225" s="1">
         <v>2013</v>
@@ -5016,12 +5005,12 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>22</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C226" s="1">
         <v>2013</v>
@@ -5036,12 +5025,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>22</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C227" s="1">
         <v>2013</v>
@@ -5056,12 +5045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>22</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C228" s="1">
         <v>2013</v>
@@ -5076,12 +5065,12 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>22</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C229" s="1">
         <v>2013</v>
@@ -5096,12 +5085,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>22</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C230" s="1">
         <v>2017</v>
@@ -5116,12 +5105,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>22</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C231" s="1">
         <v>2017</v>
@@ -5136,12 +5125,12 @@
         <v>18.181818181818183</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>22</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C232" s="1">
         <v>2017</v>
@@ -5156,18 +5145,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>22</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C233" s="1">
         <v>2017</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E233" s="1">
         <v>0</v>
@@ -5176,12 +5165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>22</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C234" s="1">
         <v>2017</v>
@@ -5196,12 +5185,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>23</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C235" s="1">
         <v>2013</v>
@@ -5216,12 +5205,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>23</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C236" s="1">
         <v>2013</v>
@@ -5236,12 +5225,12 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>23</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C237" s="1">
         <v>2013</v>
@@ -5256,18 +5245,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>23</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C238" s="1">
         <v>2013</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E238" s="2">
         <v>53.333333333333336</v>
@@ -5276,12 +5265,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>23</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C239" s="1">
         <v>2013</v>
@@ -5296,12 +5285,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>23</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C240" s="1">
         <v>2017</v>
@@ -5316,12 +5305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>23</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C241" s="1">
         <v>2017</v>
@@ -5336,12 +5325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>23</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C242" s="1">
         <v>2017</v>
@@ -5356,18 +5345,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>23</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C243" s="1">
         <v>2017</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E243" s="2">
         <v>100</v>
@@ -5376,18 +5365,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>23</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C244" s="1">
         <v>2017</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E244" s="2">
         <v>100</v>
@@ -5396,12 +5385,12 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>23</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C245" s="1">
         <v>2017</v>
@@ -5416,12 +5405,12 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>24</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C246" s="1">
         <v>2013</v>
@@ -5436,12 +5425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>24</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C247" s="1">
         <v>2013</v>
@@ -5456,12 +5445,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>24</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C248" s="1">
         <v>2013</v>
@@ -5476,18 +5465,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>24</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C249" s="1">
         <v>2013</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E249" s="2">
         <v>100</v>
@@ -5496,12 +5485,12 @@
         <v>26.666666666666668</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>24</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C250" s="1">
         <v>2013</v>
@@ -5516,12 +5505,12 @@
         <v>69.230769230769226</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>24</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C251" s="1">
         <v>2013</v>
@@ -5536,12 +5525,12 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>24</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C252" s="1">
         <v>2017</v>
@@ -5556,12 +5545,12 @@
         <v>15.384615384615385</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>24</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C253" s="1">
         <v>2017</v>
@@ -5576,12 +5565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>24</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C254" s="1">
         <v>2017</v>
@@ -5596,18 +5585,18 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>24</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C255" s="1">
         <v>2017</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E255" s="2">
         <v>100</v>
@@ -5616,18 +5605,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>24</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C256" s="1">
         <v>2017</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E256" s="2">
         <v>13.333333333333334</v>
@@ -5636,12 +5625,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>24</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C257" s="1">
         <v>2017</v>
@@ -5656,12 +5645,12 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>24</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C258" s="1">
         <v>2017</v>
@@ -5676,12 +5665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>25</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C259" s="1">
         <v>2013</v>
@@ -5696,12 +5685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>25</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C260" s="1">
         <v>2013</v>
@@ -5716,12 +5705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>25</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C261" s="1">
         <v>2013</v>
@@ -5736,18 +5725,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>25</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C262" s="1">
         <v>2013</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E262" s="2">
         <v>100</v>
@@ -5756,12 +5745,12 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>25</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C263" s="1">
         <v>2013</v>
@@ -5776,12 +5765,12 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>25</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C264" s="1">
         <v>2017</v>
@@ -5796,12 +5785,12 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>25</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C265" s="1">
         <v>2017</v>
@@ -5816,12 +5805,12 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>25</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C266" s="1">
         <v>2017</v>
@@ -5836,18 +5825,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>25</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C267" s="1">
         <v>2017</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E267" s="2">
         <v>100</v>
@@ -5856,12 +5845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>25</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C268" s="1">
         <v>2017</v>
@@ -5876,12 +5865,12 @@
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>26</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C269" s="1">
         <v>2013</v>
@@ -5896,12 +5885,12 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>26</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C270" s="1">
         <v>2013</v>
@@ -5916,12 +5905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>26</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C271" s="1">
         <v>2013</v>
@@ -5936,18 +5925,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>26</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C272" s="1">
         <v>2013</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E272" s="2">
         <v>76.19047619047619</v>
@@ -5956,12 +5945,12 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>26</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C273" s="1">
         <v>2013</v>
@@ -5976,12 +5965,12 @@
         <v>47.619047619047613</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>26</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C274" s="1">
         <v>2017</v>
@@ -5996,12 +5985,12 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>26</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C275" s="1">
         <v>2017</v>
@@ -6016,12 +6005,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>26</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C276" s="1">
         <v>2017</v>
@@ -6036,18 +6025,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>26</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C277" s="1">
         <v>2017</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E277" s="2">
         <v>100</v>
@@ -6056,12 +6045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>26</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C278" s="1">
         <v>2017</v>
@@ -6076,12 +6065,12 @@
         <v>64.705882352941174</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>26</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C279" s="1">
         <v>2017</v>
@@ -6096,12 +6085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>27</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C280" s="1">
         <v>2013</v>
@@ -6116,12 +6105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>27</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C281" s="1">
         <v>2013</v>
@@ -6136,12 +6125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>27</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C282" s="1">
         <v>2013</v>
@@ -6156,12 +6145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>27</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C283" s="1">
         <v>2013</v>
@@ -6176,12 +6165,12 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>27</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C284" s="1">
         <v>2013</v>
@@ -6196,12 +6185,12 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>27</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C285" s="1">
         <v>2017</v>
@@ -6216,12 +6205,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>27</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C286" s="1">
         <v>2017</v>
@@ -6236,12 +6225,12 @@
         <v>19.047619047619047</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>27</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C287" s="1">
         <v>2017</v>
@@ -6256,12 +6245,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>27</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C288" s="1">
         <v>2017</v>
@@ -6276,18 +6265,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>27</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C289" s="1">
         <v>2017</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E289" s="2">
         <v>100</v>
@@ -6296,18 +6285,18 @@
         <v>9.5238095238095237</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>27</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C290" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C290" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E290" s="2">
         <v>4.7619047619047619</v>
@@ -6316,18 +6305,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>27</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C291" s="1">
         <v>2017</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E291" s="2">
         <v>71.428571428571431</v>
@@ -6336,12 +6325,12 @@
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>28</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C292" s="1">
         <v>2013</v>
@@ -6356,12 +6345,12 @@
         <v>27.27272727272727</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>28</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C293" s="1">
         <v>2013</v>
@@ -6376,12 +6365,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>28</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C294" s="1">
         <v>2013</v>
@@ -6396,12 +6385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>28</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C295" s="1">
         <v>2013</v>
@@ -6416,12 +6405,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>28</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C296" s="1">
         <v>2017</v>
@@ -6436,12 +6425,12 @@
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>28</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C297" s="1">
         <v>2017</v>
@@ -6456,12 +6445,12 @@
         <v>27.777777777777779</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>28</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C298" s="1">
         <v>2017</v>
@@ -6476,18 +6465,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>28</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C299" s="1">
         <v>2017</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E299" s="2">
         <v>100</v>
@@ -6496,12 +6485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>28</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C300" s="1">
         <v>2017</v>
@@ -6516,12 +6505,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>29</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C301" s="1">
         <v>2013</v>
@@ -6536,12 +6525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>29</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C302" s="1">
         <v>2013</v>
@@ -6556,12 +6545,12 @@
         <v>31.578947368421051</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>29</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C303" s="1">
         <v>2013</v>
@@ -6576,18 +6565,18 @@
         <v>15.789473684210526</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>29</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C304" s="1">
         <v>2013</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E304" s="2">
         <v>100</v>
@@ -6596,12 +6585,12 @@
         <v>42.105263157894733</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>29</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C305" s="1">
         <v>2017</v>
@@ -6616,12 +6605,12 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>29</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C306" s="1">
         <v>2017</v>
@@ -6636,12 +6625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>29</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C307" s="1">
         <v>2017</v>
@@ -6656,18 +6645,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>29</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C308" s="1">
         <v>2017</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E308" s="2">
         <v>100</v>
@@ -6676,12 +6665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>29</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C309" s="1">
         <v>2017</v>
@@ -6696,12 +6685,12 @@
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>30</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C310" s="1">
         <v>2013</v>
@@ -6716,12 +6705,12 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>30</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C311" s="1">
         <v>2013</v>
@@ -6736,12 +6725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>30</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C312" s="1">
         <v>2013</v>
@@ -6756,12 +6745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>30</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C313" s="1">
         <v>2013</v>
@@ -6776,12 +6765,12 @@
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>30</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C314" s="1">
         <v>2017</v>
@@ -6796,12 +6785,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>30</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C315" s="1">
         <v>2017</v>
@@ -6816,12 +6805,12 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>30</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C316" s="1">
         <v>2017</v>
@@ -6836,18 +6825,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>30</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C317" s="1">
         <v>2017</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E317" s="2">
         <v>100</v>
@@ -6856,18 +6845,18 @@
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>30</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C318" s="1">
         <v>2017</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E318" s="2">
         <v>100</v>
@@ -6876,12 +6865,12 @@
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>30</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C319" s="1">
         <v>2017</v>
@@ -6896,12 +6885,12 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>31</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C320" s="1">
         <v>2013</v>
@@ -6916,12 +6905,12 @@
         <v>26.666666666666668</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>31</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C321" s="1">
         <v>2013</v>
@@ -6936,12 +6925,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>31</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C322" s="1">
         <v>2013</v>
@@ -6956,12 +6945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>31</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C323" s="1">
         <v>2013</v>
@@ -6976,12 +6965,12 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>31</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C324" s="1">
         <v>2017</v>
@@ -6996,12 +6985,12 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>31</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C325" s="1">
         <v>2017</v>
@@ -7016,12 +7005,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>31</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C326" s="1">
         <v>2017</v>
@@ -7036,18 +7025,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>31</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C327" s="1">
         <v>2017</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E327" s="2">
         <v>100</v>
@@ -7056,18 +7045,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>31</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C328" s="1">
         <v>2017</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E328" s="2">
         <v>46.666666666666664</v>
@@ -7076,18 +7065,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>31</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C329" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D329" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C329" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E329" s="2">
         <v>100</v>
@@ -7096,12 +7085,12 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>32</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C330" s="1">
         <v>2013</v>
@@ -7116,12 +7105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>32</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C331" s="1">
         <v>2013</v>
@@ -7136,12 +7125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>32</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C332" s="1">
         <v>2013</v>
@@ -7156,18 +7145,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>32</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C333" s="1">
         <v>2013</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E333" s="2">
         <v>100</v>
@@ -7176,12 +7165,12 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>32</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C334" s="1">
         <v>2013</v>
@@ -7196,12 +7185,12 @@
         <v>72.222222222222214</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>32</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C335" s="1">
         <v>2017</v>
@@ -7216,12 +7205,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>32</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C336" s="1">
         <v>2017</v>
@@ -7236,12 +7225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>32</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C337" s="1">
         <v>2017</v>
@@ -7256,18 +7245,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>32</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C338" s="1">
         <v>2017</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E338" s="2">
         <v>100</v>
@@ -7276,18 +7265,18 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>32</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C339" s="1">
         <v>2017</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E339" s="2">
         <v>100</v>
@@ -7296,12 +7285,12 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>32</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C340" s="1">
         <v>2017</v>
